--- a/Double_Slit/week21-secondStatProof.xlsx
+++ b/Double_Slit/week21-secondStatProof.xlsx
@@ -129,6 +129,418 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Standard</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Deviation vs Counts</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12780861767279089"/>
+                  <c:y val="-0.207111402741324"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.341805806147327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.451005098112319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6602595372658615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3286266888273199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1463043011528118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9097093755062948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3589419883644718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1191714121328464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82003744094799613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4330015834396033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6002427665449253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8839479972160804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0382034307677168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7034613061853761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="323088016"/>
+        <c:axId val="297863888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="323088016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297863888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297863888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323088016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -222,183 +634,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$8</c:f>
+              <c:f>Sheet1!$S$2:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.0623157540948953</c:v>
+                  <c:v>29.445343789373993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2705848487901892</c:v>
+                  <c:v>19.574007317156806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1912607490666405</c:v>
+                  <c:v>29.309515727738741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9542350009304572</c:v>
+                  <c:v>17.757114698675476</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5794292221201758</c:v>
+                  <c:v>10.410489275506608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6768048909252169</c:v>
+                  <c:v>5.6613605390303965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.931324269616692</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>135.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>212.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$2:$O$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>135.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>212.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$P$2:$P$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.2249030993194201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.40587727318528</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7815340802378077</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2820450584977028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9498427657407165</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.644741302407709</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.577379737113251</c:v>
+                  <c:v>7.026505538643149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,11 +672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319958088"/>
-        <c:axId val="319956912"/>
+        <c:axId val="325148376"/>
+        <c:axId val="325147592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319958088"/>
+        <c:axId val="325148376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,12 +733,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319956912"/>
+        <c:crossAx val="325147592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319956912"/>
+        <c:axId val="325147592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319958088"/>
+        <c:crossAx val="325148376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -548,38 +807,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -657,6 +884,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1173,24 +1440,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1200,6 +1983,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1471,15 +2284,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1513,11 +2326,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1560,11 +2373,23 @@
         <v>3.0623157540948953</v>
       </c>
       <c r="P2">
-        <f>SQRT(M2)</f>
-        <v>3.2249030993194201</v>
+        <f>LN(M2)</f>
+        <v>2.341805806147327</v>
+      </c>
+      <c r="Q2">
+        <f>LN(N2)</f>
+        <v>1.1191714121328464</v>
+      </c>
+      <c r="S2">
+        <f>100*N2/M2</f>
+        <v>29.445343789373993</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2:W8" si="0">LN(SQRT(P2))</f>
+        <v>0.42546117189088045</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1599,19 +2424,31 @@
         <v>14</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M8" si="0">AVERAGE(B3:K3)</f>
+        <f t="shared" ref="M3:M8" si="1">AVERAGE(B3:K3)</f>
         <v>11.6</v>
       </c>
       <c r="N3">
-        <f>STDEV(B3:K3)</f>
+        <f t="shared" ref="N3:N8" si="2">STDEV(B3:K3)</f>
         <v>2.2705848487901892</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P8" si="1">SQRT(M3)</f>
-        <v>3.40587727318528</v>
+        <f t="shared" ref="P3:P8" si="3">LN(M3)</f>
+        <v>2.451005098112319</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q7" si="4">LN(N3)</f>
+        <v>0.82003744094799613</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="5">100*N3/M3</f>
+        <v>19.574007317156806</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0.44824909227849918</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1646,7 +2483,7 @@
         <v>11</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.3</v>
       </c>
       <c r="N4">
@@ -1654,11 +2491,23 @@
         <v>4.1912607490666405</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
-        <v>3.7815340802378077</v>
+        <f t="shared" si="3"/>
+        <v>2.6602595372658615</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>1.4330015834396033</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>29.309515727738741</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0.48921184421731273</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1693,19 +2542,31 @@
         <v>24</v>
       </c>
       <c r="M5">
+        <f t="shared" si="1"/>
+        <v>27.9</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>4.9542350009304572</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>3.3286266888273199</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>1.6002427665449253</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>17.757114698675476</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="0"/>
-        <v>27.9</v>
-      </c>
-      <c r="N5">
-        <f>STDEV(B5:K5)</f>
-        <v>4.9542350009304572</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>5.2820450584977028</v>
+        <v>0.60127990658607444</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1740,19 +2601,31 @@
         <v>65</v>
       </c>
       <c r="M6">
+        <f t="shared" si="1"/>
+        <v>63.2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>6.5794292221201758</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>4.1463043011528118</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>1.8839479972160804</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>10.410489275506608</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="0"/>
-        <v>63.2</v>
-      </c>
-      <c r="N6">
-        <f>STDEV(B6:K6)</f>
-        <v>6.5794292221201758</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="1"/>
-        <v>7.9498427657407165</v>
+        <v>0.71110870382132174</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1787,19 +2660,31 @@
         <v>125</v>
       </c>
       <c r="M7">
+        <f t="shared" si="1"/>
+        <v>135.6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>7.6768048909252169</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>4.9097093755062948</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>2.0382034307677168</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>5.6613605390303965</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="0"/>
-        <v>135.6</v>
-      </c>
-      <c r="N7">
-        <f>STDEV(B7:K7)</f>
-        <v>7.6768048909252169</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>11.644741302407709</v>
+        <v>0.79560737486501476</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1834,16 +2719,28 @@
         <v>200</v>
       </c>
       <c r="M8">
+        <f t="shared" si="1"/>
+        <v>212.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>14.931324269616692</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>5.3589419883644718</v>
+      </c>
+      <c r="Q8">
+        <f>LN(N8)</f>
+        <v>2.7034613061853761</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>7.026505538643149</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="0"/>
-        <v>212.5</v>
-      </c>
-      <c r="N8">
-        <f>STDEV(B8:K8)</f>
-        <v>14.931324269616692</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>14.577379737113251</v>
+        <v>0.83938328268409301</v>
       </c>
     </row>
   </sheetData>

--- a/Double_Slit/week21-secondStatProof.xlsx
+++ b/Double_Slit/week21-secondStatProof.xlsx
@@ -354,11 +354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="323088016"/>
-        <c:axId val="297863888"/>
+        <c:axId val="296275536"/>
+        <c:axId val="296277104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="323088016"/>
+        <c:axId val="296275536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,12 +415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297863888"/>
+        <c:crossAx val="296277104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297863888"/>
+        <c:axId val="296277104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323088016"/>
+        <c:crossAx val="296275536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -634,7 +634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$8</c:f>
+              <c:f>Sheet1!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -672,11 +672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325148376"/>
-        <c:axId val="325147592"/>
+        <c:axId val="296276320"/>
+        <c:axId val="296277496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="325148376"/>
+        <c:axId val="296276320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,12 +733,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325147592"/>
+        <c:crossAx val="296277496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325147592"/>
+        <c:axId val="296277496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325148376"/>
+        <c:crossAx val="296276320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2286,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2372,6 +2372,10 @@
         <f>STDEV(B2:K2)</f>
         <v>3.0623157540948953</v>
       </c>
+      <c r="O2">
+        <f>100*N2/M2</f>
+        <v>29.445343789373993</v>
+      </c>
       <c r="P2">
         <f>LN(M2)</f>
         <v>2.341805806147327</v>
@@ -2379,10 +2383,6 @@
       <c r="Q2">
         <f>LN(N2)</f>
         <v>1.1191714121328464</v>
-      </c>
-      <c r="S2">
-        <f>100*N2/M2</f>
-        <v>29.445343789373993</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W8" si="0">LN(SQRT(P2))</f>
@@ -2431,6 +2431,10 @@
         <f t="shared" ref="N3:N8" si="2">STDEV(B3:K3)</f>
         <v>2.2705848487901892</v>
       </c>
+      <c r="O3">
+        <f>100*N3/M3</f>
+        <v>19.574007317156806</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P8" si="3">LN(M3)</f>
         <v>2.451005098112319</v>
@@ -2438,10 +2442,6 @@
       <c r="Q3">
         <f t="shared" ref="Q3:Q7" si="4">LN(N3)</f>
         <v>0.82003744094799613</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S8" si="5">100*N3/M3</f>
-        <v>19.574007317156806</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
@@ -2490,6 +2490,10 @@
         <f>STDEV(B4:K4)</f>
         <v>4.1912607490666405</v>
       </c>
+      <c r="O4">
+        <f>100*N4/M4</f>
+        <v>29.309515727738741</v>
+      </c>
       <c r="P4">
         <f t="shared" si="3"/>
         <v>2.6602595372658615</v>
@@ -2497,10 +2501,6 @@
       <c r="Q4">
         <f t="shared" si="4"/>
         <v>1.4330015834396033</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="5"/>
-        <v>29.309515727738741</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
@@ -2549,6 +2549,10 @@
         <f t="shared" si="2"/>
         <v>4.9542350009304572</v>
       </c>
+      <c r="O5">
+        <f>100*N5/M5</f>
+        <v>17.757114698675476</v>
+      </c>
       <c r="P5">
         <f t="shared" si="3"/>
         <v>3.3286266888273199</v>
@@ -2556,10 +2560,6 @@
       <c r="Q5">
         <f t="shared" si="4"/>
         <v>1.6002427665449253</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="5"/>
-        <v>17.757114698675476</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
@@ -2608,6 +2608,10 @@
         <f t="shared" si="2"/>
         <v>6.5794292221201758</v>
       </c>
+      <c r="O6">
+        <f>100*N6/M6</f>
+        <v>10.410489275506608</v>
+      </c>
       <c r="P6">
         <f t="shared" si="3"/>
         <v>4.1463043011528118</v>
@@ -2615,10 +2619,6 @@
       <c r="Q6">
         <f t="shared" si="4"/>
         <v>1.8839479972160804</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="5"/>
-        <v>10.410489275506608</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
@@ -2667,6 +2667,10 @@
         <f t="shared" si="2"/>
         <v>7.6768048909252169</v>
       </c>
+      <c r="O7">
+        <f>100*N7/M7</f>
+        <v>5.6613605390303965</v>
+      </c>
       <c r="P7">
         <f t="shared" si="3"/>
         <v>4.9097093755062948</v>
@@ -2674,10 +2678,6 @@
       <c r="Q7">
         <f t="shared" si="4"/>
         <v>2.0382034307677168</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="5"/>
-        <v>5.6613605390303965</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
@@ -2726,6 +2726,10 @@
         <f t="shared" si="2"/>
         <v>14.931324269616692</v>
       </c>
+      <c r="O8">
+        <f>100*N8/M8</f>
+        <v>7.026505538643149</v>
+      </c>
       <c r="P8">
         <f t="shared" si="3"/>
         <v>5.3589419883644718</v>
@@ -2733,10 +2737,6 @@
       <c r="Q8">
         <f>LN(N8)</f>
         <v>2.7034613061853761</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="5"/>
-        <v>7.026505538643149</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>

--- a/Double_Slit/week21-secondStatProof.xlsx
+++ b/Double_Slit/week21-secondStatProof.xlsx
@@ -354,11 +354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296275536"/>
-        <c:axId val="296277104"/>
+        <c:axId val="323088016"/>
+        <c:axId val="297863888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296275536"/>
+        <c:axId val="323088016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,12 +415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296277104"/>
+        <c:crossAx val="297863888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296277104"/>
+        <c:axId val="297863888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296275536"/>
+        <c:crossAx val="323088016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -634,7 +634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$8</c:f>
+              <c:f>Sheet1!$S$2:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -672,11 +672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296276320"/>
-        <c:axId val="296277496"/>
+        <c:axId val="325148376"/>
+        <c:axId val="325147592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296276320"/>
+        <c:axId val="325148376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,12 +733,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296277496"/>
+        <c:crossAx val="325147592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296277496"/>
+        <c:axId val="325147592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296276320"/>
+        <c:crossAx val="325148376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2286,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2372,10 +2372,6 @@
         <f>STDEV(B2:K2)</f>
         <v>3.0623157540948953</v>
       </c>
-      <c r="O2">
-        <f>100*N2/M2</f>
-        <v>29.445343789373993</v>
-      </c>
       <c r="P2">
         <f>LN(M2)</f>
         <v>2.341805806147327</v>
@@ -2383,6 +2379,10 @@
       <c r="Q2">
         <f>LN(N2)</f>
         <v>1.1191714121328464</v>
+      </c>
+      <c r="S2">
+        <f>100*N2/M2</f>
+        <v>29.445343789373993</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W8" si="0">LN(SQRT(P2))</f>
@@ -2431,10 +2431,6 @@
         <f t="shared" ref="N3:N8" si="2">STDEV(B3:K3)</f>
         <v>2.2705848487901892</v>
       </c>
-      <c r="O3">
-        <f>100*N3/M3</f>
-        <v>19.574007317156806</v>
-      </c>
       <c r="P3">
         <f t="shared" ref="P3:P8" si="3">LN(M3)</f>
         <v>2.451005098112319</v>
@@ -2442,6 +2438,10 @@
       <c r="Q3">
         <f t="shared" ref="Q3:Q7" si="4">LN(N3)</f>
         <v>0.82003744094799613</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="5">100*N3/M3</f>
+        <v>19.574007317156806</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
@@ -2490,10 +2490,6 @@
         <f>STDEV(B4:K4)</f>
         <v>4.1912607490666405</v>
       </c>
-      <c r="O4">
-        <f>100*N4/M4</f>
-        <v>29.309515727738741</v>
-      </c>
       <c r="P4">
         <f t="shared" si="3"/>
         <v>2.6602595372658615</v>
@@ -2501,6 +2497,10 @@
       <c r="Q4">
         <f t="shared" si="4"/>
         <v>1.4330015834396033</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>29.309515727738741</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
@@ -2549,10 +2549,6 @@
         <f t="shared" si="2"/>
         <v>4.9542350009304572</v>
       </c>
-      <c r="O5">
-        <f>100*N5/M5</f>
-        <v>17.757114698675476</v>
-      </c>
       <c r="P5">
         <f t="shared" si="3"/>
         <v>3.3286266888273199</v>
@@ -2560,6 +2556,10 @@
       <c r="Q5">
         <f t="shared" si="4"/>
         <v>1.6002427665449253</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>17.757114698675476</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
@@ -2608,10 +2608,6 @@
         <f t="shared" si="2"/>
         <v>6.5794292221201758</v>
       </c>
-      <c r="O6">
-        <f>100*N6/M6</f>
-        <v>10.410489275506608</v>
-      </c>
       <c r="P6">
         <f t="shared" si="3"/>
         <v>4.1463043011528118</v>
@@ -2619,6 +2615,10 @@
       <c r="Q6">
         <f t="shared" si="4"/>
         <v>1.8839479972160804</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>10.410489275506608</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
@@ -2667,10 +2667,6 @@
         <f t="shared" si="2"/>
         <v>7.6768048909252169</v>
       </c>
-      <c r="O7">
-        <f>100*N7/M7</f>
-        <v>5.6613605390303965</v>
-      </c>
       <c r="P7">
         <f t="shared" si="3"/>
         <v>4.9097093755062948</v>
@@ -2678,6 +2674,10 @@
       <c r="Q7">
         <f t="shared" si="4"/>
         <v>2.0382034307677168</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>5.6613605390303965</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
@@ -2726,10 +2726,6 @@
         <f t="shared" si="2"/>
         <v>14.931324269616692</v>
       </c>
-      <c r="O8">
-        <f>100*N8/M8</f>
-        <v>7.026505538643149</v>
-      </c>
       <c r="P8">
         <f t="shared" si="3"/>
         <v>5.3589419883644718</v>
@@ -2737,6 +2733,10 @@
       <c r="Q8">
         <f>LN(N8)</f>
         <v>2.7034613061853761</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>7.026505538643149</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
